--- a/Exercise 1 -- Model building/Solution/Model.xlsx
+++ b/Exercise 1 -- Model building/Solution/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="5835" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="5835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Submodels" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="1087">
   <si>
     <t>ID</t>
   </si>
@@ -3123,6 +3123,189 @@
       </rPr>
       <t>+</t>
     </r>
+  </si>
+  <si>
+    <t>Vmax * min(ATP[c], CTP[c], GTP[c], UTP[c]) / (Km + min(ATP[c], CTP[c], GTP[c], UTP[c])) * RnaPolymerase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Adk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Apt-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Cmk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Eno-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Fba-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Gap-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Gk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Hpt-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * LacA-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Ldh-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Nox-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PeptAbcTransporter-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pfk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PgiB-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pgk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pgm-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PiAbcTransporter-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Ppa-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Prs-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pts-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pyk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PyrH-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Ribosome-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * RnaPolymerase-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Rnase-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Rpe-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Tim-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * TklB-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Udk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Upp-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Adk-Rna[c] / (Adk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Apt-Rna[c] / (Apt-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Cmk-Rna[c] / (Cmk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Eno-Rna[c] / (Eno-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Fba-Rna[c] / (Fba-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Gap-Rna[c] / (Gap-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Gk-Rna[c] / (Gk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Hpt-Rna[c] / (Hpt-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * LacA-Rna[c] / (LacA-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Ldh-Rna[c] / (Ldh-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Nox-Rna[c] / (Nox-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * PeptAbcTransporter-Rna[c] / (PeptAbcTransporter-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Pfk-Rna[c] / (Pfk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * PgiB-Rna[c] / (PgiB-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Pgk-Rna[c] / (Pgk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Pgm-Rna[c] / (Pgm-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * PiAbcTransporter-Rna[c] / (PiAbcTransporter-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Ppa-Rna[c] / (Ppa-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Prs-Rna[c] / (Prs-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Pts-Rna[c] / (Pts-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Pyk-Rna[c] / (Pyk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * PyrH-Rna[c] / (PyrH-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Ribosome-Rna[c] / (Ribosome-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * RnaPolymerase-Rna[c] / (RnaPolymerase-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Rnase-Rna[c] / (Rnase-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Rpe-Rna[c] / (Rpe-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Tim-Rna[c] / (Tim-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * TklB-Rna[c] / (TklB-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Udk-Rna[c] / (Udk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Upp-Rna[c] / (Upp-Rna[c] + Km) * Rnase-Protein[c]</t>
   </si>
 </sst>
 </file>
@@ -3732,11 +3915,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A147" sqref="A147:XFD147"/>
+      <selection pane="bottomRight" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6657,11 +6840,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A54" sqref="A54:XFD54"/>
+      <selection pane="bottomRight" activeCell="I172" sqref="I172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8310,6 +8493,9 @@
       <c r="E87" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F87" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
@@ -8329,6 +8515,9 @@
       <c r="E88" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F88" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
@@ -8348,6 +8537,9 @@
       <c r="E89" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F89" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
@@ -8367,6 +8559,9 @@
       <c r="E90" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F90" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
@@ -8386,6 +8581,9 @@
       <c r="E91" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F91" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
@@ -8405,6 +8603,9 @@
       <c r="E92" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F92" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
@@ -8424,6 +8625,9 @@
       <c r="E93" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F93" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
@@ -8443,6 +8647,9 @@
       <c r="E94" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F94" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
     </row>
@@ -8462,6 +8669,9 @@
       <c r="E95" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F95" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
     </row>
@@ -8481,6 +8691,9 @@
       <c r="E96" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F96" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
     </row>
@@ -8500,6 +8713,9 @@
       <c r="E97" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F97" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
     </row>
@@ -8519,6 +8735,9 @@
       <c r="E98" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F98" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
     </row>
@@ -8538,6 +8757,9 @@
       <c r="E99" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F99" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
@@ -8557,6 +8779,9 @@
       <c r="E100" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F100" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
     </row>
@@ -8576,6 +8801,9 @@
       <c r="E101" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F101" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
     </row>
@@ -8595,6 +8823,9 @@
       <c r="E102" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F102" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
@@ -8614,6 +8845,9 @@
       <c r="E103" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F103" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
@@ -8633,6 +8867,9 @@
       <c r="E104" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F104" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
@@ -8652,6 +8889,9 @@
       <c r="E105" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F105" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
@@ -8671,6 +8911,9 @@
       <c r="E106" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F106" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
@@ -8690,6 +8933,9 @@
       <c r="E107" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F107" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
     </row>
@@ -8709,6 +8955,9 @@
       <c r="E108" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F108" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
     </row>
@@ -8728,6 +8977,9 @@
       <c r="E109" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F109" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
     </row>
@@ -8747,6 +8999,9 @@
       <c r="E110" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F110" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
     </row>
@@ -8766,6 +9021,9 @@
       <c r="E111" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F111" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
     </row>
@@ -8785,6 +9043,9 @@
       <c r="E112" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F112" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
     </row>
@@ -8804,6 +9065,9 @@
       <c r="E113" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F113" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
     </row>
@@ -8823,6 +9087,9 @@
       <c r="E114" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F114" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
@@ -8842,6 +9109,9 @@
       <c r="E115" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F115" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
@@ -8861,6 +9131,9 @@
       <c r="E116" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F116" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
     </row>
@@ -8880,6 +9153,9 @@
       <c r="E117" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F117" s="3" t="s">
+        <v>1027</v>
+      </c>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
     </row>
@@ -8899,6 +9175,9 @@
       <c r="E118" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F118" s="3" t="s">
+        <v>1028</v>
+      </c>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
     </row>
@@ -8918,6 +9197,9 @@
       <c r="E119" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F119" s="3" t="s">
+        <v>1029</v>
+      </c>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
     </row>
@@ -8937,6 +9219,9 @@
       <c r="E120" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F120" s="3" t="s">
+        <v>1030</v>
+      </c>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
     </row>
@@ -8956,6 +9241,9 @@
       <c r="E121" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F121" s="3" t="s">
+        <v>1031</v>
+      </c>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
     </row>
@@ -8975,6 +9263,9 @@
       <c r="E122" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F122" s="3" t="s">
+        <v>1032</v>
+      </c>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
     </row>
@@ -8994,6 +9285,9 @@
       <c r="E123" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F123" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
     </row>
@@ -9013,6 +9307,9 @@
       <c r="E124" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F124" s="3" t="s">
+        <v>1034</v>
+      </c>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
     </row>
@@ -9032,6 +9329,9 @@
       <c r="E125" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F125" s="3" t="s">
+        <v>1035</v>
+      </c>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
     </row>
@@ -9051,6 +9351,9 @@
       <c r="E126" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F126" s="3" t="s">
+        <v>1036</v>
+      </c>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
     </row>
@@ -9070,6 +9373,9 @@
       <c r="E127" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F127" s="3" t="s">
+        <v>1037</v>
+      </c>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
     </row>
@@ -9089,6 +9395,9 @@
       <c r="E128" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F128" s="3" t="s">
+        <v>1038</v>
+      </c>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
     </row>
@@ -9108,6 +9417,9 @@
       <c r="E129" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F129" s="3" t="s">
+        <v>1039</v>
+      </c>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
     </row>
@@ -9127,6 +9439,9 @@
       <c r="E130" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F130" s="3" t="s">
+        <v>1040</v>
+      </c>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
     </row>
@@ -9146,6 +9461,9 @@
       <c r="E131" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F131" s="3" t="s">
+        <v>1041</v>
+      </c>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
     </row>
@@ -9165,6 +9483,9 @@
       <c r="E132" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F132" s="3" t="s">
+        <v>1042</v>
+      </c>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
     </row>
@@ -9184,6 +9505,9 @@
       <c r="E133" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F133" s="3" t="s">
+        <v>1043</v>
+      </c>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
     </row>
@@ -9203,6 +9527,9 @@
       <c r="E134" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F134" s="3" t="s">
+        <v>1044</v>
+      </c>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
     </row>
@@ -9222,6 +9549,9 @@
       <c r="E135" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F135" s="3" t="s">
+        <v>1045</v>
+      </c>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
     </row>
@@ -9241,6 +9571,9 @@
       <c r="E136" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F136" s="3" t="s">
+        <v>1046</v>
+      </c>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
     </row>
@@ -9260,6 +9593,9 @@
       <c r="E137" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F137" s="3" t="s">
+        <v>1047</v>
+      </c>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
     </row>
@@ -9279,6 +9615,9 @@
       <c r="E138" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F138" s="3" t="s">
+        <v>1048</v>
+      </c>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
     </row>
@@ -9298,6 +9637,9 @@
       <c r="E139" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F139" s="3" t="s">
+        <v>1049</v>
+      </c>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
     </row>
@@ -9317,6 +9659,9 @@
       <c r="E140" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F140" s="3" t="s">
+        <v>1050</v>
+      </c>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
     </row>
@@ -9336,6 +9681,9 @@
       <c r="E141" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F141" s="3" t="s">
+        <v>1051</v>
+      </c>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
     </row>
@@ -9355,6 +9703,9 @@
       <c r="E142" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F142" s="3" t="s">
+        <v>1052</v>
+      </c>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
     </row>
@@ -9374,6 +9725,9 @@
       <c r="E143" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F143" s="3" t="s">
+        <v>1053</v>
+      </c>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
     </row>
@@ -9393,6 +9747,9 @@
       <c r="E144" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F144" s="3" t="s">
+        <v>1054</v>
+      </c>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
     </row>
@@ -9412,6 +9769,9 @@
       <c r="E145" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F145" s="3" t="s">
+        <v>1055</v>
+      </c>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
     </row>
@@ -9431,6 +9791,9 @@
       <c r="E146" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F146" s="3" t="s">
+        <v>1056</v>
+      </c>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
     </row>
@@ -9450,6 +9813,9 @@
       <c r="E147" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F147" s="3" t="s">
+        <v>1057</v>
+      </c>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
     </row>
@@ -9469,6 +9835,9 @@
       <c r="E148" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F148" s="3" t="s">
+        <v>1058</v>
+      </c>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
     </row>
@@ -9488,6 +9857,9 @@
       <c r="E149" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F149" s="3" t="s">
+        <v>1059</v>
+      </c>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
     </row>
@@ -9507,6 +9879,9 @@
       <c r="E150" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F150" s="3" t="s">
+        <v>1060</v>
+      </c>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
     </row>
@@ -9526,6 +9901,9 @@
       <c r="E151" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F151" s="3" t="s">
+        <v>1061</v>
+      </c>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
     </row>
@@ -9545,6 +9923,9 @@
       <c r="E152" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F152" s="3" t="s">
+        <v>1062</v>
+      </c>
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
     </row>
@@ -9564,6 +9945,9 @@
       <c r="E153" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F153" s="3" t="s">
+        <v>1063</v>
+      </c>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
     </row>
@@ -9583,6 +9967,9 @@
       <c r="E154" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F154" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
     </row>
@@ -9602,6 +9989,9 @@
       <c r="E155" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F155" s="3" t="s">
+        <v>1065</v>
+      </c>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
     </row>
@@ -9621,6 +10011,9 @@
       <c r="E156" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F156" s="3" t="s">
+        <v>1066</v>
+      </c>
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
     </row>
@@ -9640,6 +10033,9 @@
       <c r="E157" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F157" s="3" t="s">
+        <v>1067</v>
+      </c>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
     </row>
@@ -9659,6 +10055,9 @@
       <c r="E158" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F158" s="3" t="s">
+        <v>1068</v>
+      </c>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
     </row>
@@ -9678,6 +10077,9 @@
       <c r="E159" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F159" s="3" t="s">
+        <v>1069</v>
+      </c>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
@@ -9697,6 +10099,9 @@
       <c r="E160" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F160" s="3" t="s">
+        <v>1070</v>
+      </c>
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
     </row>
@@ -9716,6 +10121,9 @@
       <c r="E161" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F161" s="3" t="s">
+        <v>1071</v>
+      </c>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
     </row>
@@ -9735,6 +10143,9 @@
       <c r="E162" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F162" s="3" t="s">
+        <v>1072</v>
+      </c>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
     </row>
@@ -9754,6 +10165,9 @@
       <c r="E163" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F163" s="3" t="s">
+        <v>1073</v>
+      </c>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
     </row>
@@ -9773,6 +10187,9 @@
       <c r="E164" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F164" s="3" t="s">
+        <v>1074</v>
+      </c>
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
     </row>
@@ -9792,6 +10209,9 @@
       <c r="E165" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F165" s="3" t="s">
+        <v>1075</v>
+      </c>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
     </row>
@@ -9811,6 +10231,9 @@
       <c r="E166" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F166" s="3" t="s">
+        <v>1076</v>
+      </c>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
     </row>
@@ -9830,6 +10253,9 @@
       <c r="E167" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F167" s="3" t="s">
+        <v>1077</v>
+      </c>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
     </row>
@@ -9849,6 +10275,9 @@
       <c r="E168" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F168" s="3" t="s">
+        <v>1078</v>
+      </c>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
     </row>
@@ -9868,6 +10297,9 @@
       <c r="E169" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F169" s="3" t="s">
+        <v>1079</v>
+      </c>
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
     </row>
@@ -9887,6 +10319,9 @@
       <c r="E170" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F170" s="3" t="s">
+        <v>1080</v>
+      </c>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
     </row>
@@ -9906,6 +10341,9 @@
       <c r="E171" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F171" s="3" t="s">
+        <v>1081</v>
+      </c>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
     </row>
@@ -9925,6 +10363,9 @@
       <c r="E172" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F172" s="3" t="s">
+        <v>1082</v>
+      </c>
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
     </row>
@@ -9944,6 +10385,9 @@
       <c r="E173" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F173" s="3" t="s">
+        <v>1083</v>
+      </c>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
     </row>
@@ -9963,6 +10407,9 @@
       <c r="E174" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F174" s="3" t="s">
+        <v>1084</v>
+      </c>
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
     </row>
@@ -9982,6 +10429,9 @@
       <c r="E175" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F175" s="3" t="s">
+        <v>1085</v>
+      </c>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
     </row>
@@ -10000,6 +10450,9 @@
       </c>
       <c r="E176" s="3" t="s">
         <v>183</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>1086</v>
       </c>
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>

--- a/Exercise 1 -- Model building/Solution/Model.xlsx
+++ b/Exercise 1 -- Model building/Solution/Model.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="5835" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Submodels" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Species!$A$1:$L$146</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Submodels!$A$1:$C$5</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3774,15 +3779,15 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3793,7 +3798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3804,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3815,7 +3820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -3826,7 +3831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -3840,6 +3845,11 @@
   </sheetData>
   <autoFilter ref="A1:C5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3854,16 +3864,16 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3877,7 +3887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -3891,7 +3901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -3908,6 +3918,11 @@
   </sheetData>
   <autoFilter ref="A1:D3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3922,21 +3937,21 @@
       <selection pane="bottomRight" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="10.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="10.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3974,7 +3989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>267</v>
       </c>
@@ -3995,7 +4010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>269</v>
       </c>
@@ -4011,7 +4026,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -4029,7 +4044,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>270</v>
       </c>
@@ -4050,7 +4065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -4068,7 +4083,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -4086,7 +4101,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>272</v>
       </c>
@@ -4107,7 +4122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4125,7 +4140,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>274</v>
       </c>
@@ -4146,7 +4161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -4164,7 +4179,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>276</v>
       </c>
@@ -4185,7 +4200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -4203,7 +4218,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>278</v>
       </c>
@@ -4219,7 +4234,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -4237,7 +4252,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>279</v>
       </c>
@@ -4258,7 +4273,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -4276,7 +4291,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -4294,7 +4309,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>284</v>
       </c>
@@ -4315,7 +4330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>282</v>
       </c>
@@ -4336,7 +4351,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>286</v>
       </c>
@@ -4352,7 +4367,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>288</v>
       </c>
@@ -4368,7 +4383,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>290</v>
       </c>
@@ -4384,7 +4399,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>292</v>
       </c>
@@ -4400,7 +4415,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>294</v>
       </c>
@@ -4416,7 +4431,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>296</v>
       </c>
@@ -4432,7 +4447,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>298</v>
       </c>
@@ -4448,7 +4463,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -4466,7 +4481,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>300</v>
       </c>
@@ -4487,7 +4502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
@@ -4505,7 +4520,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>305</v>
       </c>
@@ -4526,7 +4541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -4544,7 +4559,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>307</v>
       </c>
@@ -4565,7 +4580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -4583,7 +4598,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>309</v>
       </c>
@@ -4604,7 +4619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -4622,7 +4637,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>302</v>
       </c>
@@ -4643,7 +4658,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -4661,7 +4676,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -4684,7 +4699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
@@ -4707,7 +4722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
@@ -4725,7 +4740,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>311</v>
       </c>
@@ -4746,7 +4761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>63</v>
       </c>
@@ -4764,7 +4779,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>313</v>
       </c>
@@ -4785,7 +4800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>315</v>
       </c>
@@ -4801,7 +4816,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
@@ -4819,7 +4834,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>317</v>
       </c>
@@ -4840,7 +4855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>67</v>
       </c>
@@ -4858,7 +4873,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>319</v>
       </c>
@@ -4879,7 +4894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>69</v>
       </c>
@@ -4897,7 +4912,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>321</v>
       </c>
@@ -4918,7 +4933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>323</v>
       </c>
@@ -4939,7 +4954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>325</v>
       </c>
@@ -4955,7 +4970,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>327</v>
       </c>
@@ -4976,7 +4991,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>330</v>
       </c>
@@ -4992,7 +5007,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="15" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>71</v>
       </c>
@@ -5010,7 +5025,7 @@
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="15" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>340</v>
       </c>
@@ -5031,7 +5046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>41</v>
       </c>
@@ -5054,7 +5069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>332</v>
       </c>
@@ -5075,7 +5090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>40</v>
       </c>
@@ -5093,7 +5108,7 @@
       </c>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="15" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>334</v>
       </c>
@@ -5109,7 +5124,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="15" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>73</v>
       </c>
@@ -5127,7 +5142,7 @@
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>342</v>
       </c>
@@ -5148,7 +5163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>336</v>
       </c>
@@ -5164,7 +5179,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>338</v>
       </c>
@@ -5180,7 +5195,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>344</v>
       </c>
@@ -5196,7 +5211,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>346</v>
       </c>
@@ -5212,7 +5227,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>348</v>
       </c>
@@ -5228,7 +5243,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>75</v>
       </c>
@@ -5246,7 +5261,7 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>350</v>
       </c>
@@ -5267,7 +5282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>352</v>
       </c>
@@ -5283,7 +5298,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>354</v>
       </c>
@@ -5299,7 +5314,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>77</v>
       </c>
@@ -5317,7 +5332,7 @@
       </c>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>356</v>
       </c>
@@ -5338,7 +5353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>79</v>
       </c>
@@ -5356,7 +5371,7 @@
       </c>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>358</v>
       </c>
@@ -5377,7 +5392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>81</v>
       </c>
@@ -5395,7 +5410,7 @@
       </c>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>360</v>
       </c>
@@ -5416,7 +5431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>362</v>
       </c>
@@ -5432,7 +5447,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>37</v>
       </c>
@@ -5450,7 +5465,7 @@
       </c>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>363</v>
       </c>
@@ -5471,7 +5486,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>366</v>
       </c>
@@ -5487,7 +5502,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>31</v>
       </c>
@@ -5510,7 +5525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
@@ -5528,7 +5543,7 @@
       </c>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>368</v>
       </c>
@@ -5549,7 +5564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>370</v>
       </c>
@@ -5564,7 +5579,7 @@
       </c>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>95</v>
       </c>
@@ -5585,7 +5600,7 @@
       </c>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>98</v>
       </c>
@@ -5606,7 +5621,7 @@
       </c>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>101</v>
       </c>
@@ -5627,7 +5642,7 @@
       </c>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>104</v>
       </c>
@@ -5648,7 +5663,7 @@
       </c>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>107</v>
       </c>
@@ -5669,7 +5684,7 @@
       </c>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>110</v>
       </c>
@@ -5690,7 +5705,7 @@
       </c>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>116</v>
       </c>
@@ -5711,7 +5726,7 @@
       </c>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>119</v>
       </c>
@@ -5732,7 +5747,7 @@
       </c>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>149</v>
       </c>
@@ -5753,7 +5768,7 @@
       </c>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>122</v>
       </c>
@@ -5774,7 +5789,7 @@
       </c>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>125</v>
       </c>
@@ -5795,7 +5810,7 @@
       </c>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>173</v>
       </c>
@@ -5816,7 +5831,7 @@
       </c>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>128</v>
       </c>
@@ -5837,7 +5852,7 @@
       </c>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>131</v>
       </c>
@@ -5858,7 +5873,7 @@
       </c>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>134</v>
       </c>
@@ -5879,7 +5894,7 @@
       </c>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>113</v>
       </c>
@@ -5900,7 +5915,7 @@
       </c>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>170</v>
       </c>
@@ -5921,7 +5936,7 @@
       </c>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>137</v>
       </c>
@@ -5942,7 +5957,7 @@
       </c>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>140</v>
       </c>
@@ -5963,7 +5978,7 @@
       </c>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>167</v>
       </c>
@@ -5984,7 +5999,7 @@
       </c>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>143</v>
       </c>
@@ -6005,7 +6020,7 @@
       </c>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>161</v>
       </c>
@@ -6026,7 +6041,7 @@
       </c>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>89</v>
       </c>
@@ -6047,7 +6062,7 @@
       </c>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>85</v>
       </c>
@@ -6068,7 +6083,7 @@
       </c>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>92</v>
       </c>
@@ -6089,7 +6104,7 @@
       </c>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>146</v>
       </c>
@@ -6110,7 +6125,7 @@
       </c>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>152</v>
       </c>
@@ -6131,7 +6146,7 @@
       </c>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>155</v>
       </c>
@@ -6152,7 +6167,7 @@
       </c>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>158</v>
       </c>
@@ -6173,7 +6188,7 @@
       </c>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>164</v>
       </c>
@@ -6194,7 +6209,7 @@
       </c>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>186</v>
       </c>
@@ -6215,7 +6230,7 @@
       </c>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>189</v>
       </c>
@@ -6236,7 +6251,7 @@
       </c>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>192</v>
       </c>
@@ -6257,7 +6272,7 @@
       </c>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>195</v>
       </c>
@@ -6278,7 +6293,7 @@
       </c>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>198</v>
       </c>
@@ -6299,7 +6314,7 @@
       </c>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>201</v>
       </c>
@@ -6320,7 +6335,7 @@
       </c>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>207</v>
       </c>
@@ -6341,7 +6356,7 @@
       </c>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>210</v>
       </c>
@@ -6362,7 +6377,7 @@
       </c>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>240</v>
       </c>
@@ -6383,7 +6398,7 @@
       </c>
       <c r="I125" s="4"/>
     </row>
-    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>213</v>
       </c>
@@ -6404,7 +6419,7 @@
       </c>
       <c r="I126" s="4"/>
     </row>
-    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>216</v>
       </c>
@@ -6425,7 +6440,7 @@
       </c>
       <c r="I127" s="4"/>
     </row>
-    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>264</v>
       </c>
@@ -6446,7 +6461,7 @@
       </c>
       <c r="I128" s="4"/>
     </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>219</v>
       </c>
@@ -6467,7 +6482,7 @@
       </c>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>222</v>
       </c>
@@ -6488,7 +6503,7 @@
       </c>
       <c r="I130" s="4"/>
     </row>
-    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>225</v>
       </c>
@@ -6509,7 +6524,7 @@
       </c>
       <c r="I131" s="4"/>
     </row>
-    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>204</v>
       </c>
@@ -6530,7 +6545,7 @@
       </c>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>261</v>
       </c>
@@ -6551,7 +6566,7 @@
       </c>
       <c r="I133" s="4"/>
     </row>
-    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>228</v>
       </c>
@@ -6572,7 +6587,7 @@
       </c>
       <c r="I134" s="4"/>
     </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>231</v>
       </c>
@@ -6593,7 +6608,7 @@
       </c>
       <c r="I135" s="4"/>
     </row>
-    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>258</v>
       </c>
@@ -6614,7 +6629,7 @@
       </c>
       <c r="I136" s="4"/>
     </row>
-    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>234</v>
       </c>
@@ -6635,7 +6650,7 @@
       </c>
       <c r="I137" s="4"/>
     </row>
-    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>252</v>
       </c>
@@ -6656,7 +6671,7 @@
       </c>
       <c r="I138" s="4"/>
     </row>
-    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>180</v>
       </c>
@@ -6677,7 +6692,7 @@
       </c>
       <c r="I139" s="4"/>
     </row>
-    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>176</v>
       </c>
@@ -6698,7 +6713,7 @@
       </c>
       <c r="I140" s="4"/>
     </row>
-    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>183</v>
       </c>
@@ -6719,7 +6734,7 @@
       </c>
       <c r="I141" s="4"/>
     </row>
-    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>237</v>
       </c>
@@ -6740,7 +6755,7 @@
       </c>
       <c r="I142" s="4"/>
     </row>
-    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>243</v>
       </c>
@@ -6761,7 +6776,7 @@
       </c>
       <c r="I143" s="4"/>
     </row>
-    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>246</v>
       </c>
@@ -6782,7 +6797,7 @@
       </c>
       <c r="I144" s="4"/>
     </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>249</v>
       </c>
@@ -6803,7 +6818,7 @@
       </c>
       <c r="I145" s="4"/>
     </row>
-    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>255</v>
       </c>
@@ -6832,7 +6847,12 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6847,22 +6867,22 @@
       <selection pane="bottomRight" activeCell="I172" sqref="I172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="3" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="18.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6897,7 +6917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>605</v>
       </c>
@@ -6911,7 +6931,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>378</v>
       </c>
@@ -6937,7 +6957,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>383</v>
       </c>
@@ -6954,7 +6974,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>617</v>
       </c>
@@ -6971,7 +6991,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>386</v>
       </c>
@@ -6988,7 +7008,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>620</v>
       </c>
@@ -7005,7 +7025,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>623</v>
       </c>
@@ -7022,7 +7042,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>626</v>
       </c>
@@ -7039,7 +7059,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>389</v>
       </c>
@@ -7065,7 +7085,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>596</v>
       </c>
@@ -7079,7 +7099,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>629</v>
       </c>
@@ -7096,7 +7116,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>608</v>
       </c>
@@ -7110,7 +7130,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>394</v>
       </c>
@@ -7124,7 +7144,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>397</v>
       </c>
@@ -7138,7 +7158,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>400</v>
       </c>
@@ -7152,7 +7172,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>403</v>
       </c>
@@ -7166,7 +7186,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>406</v>
       </c>
@@ -7180,7 +7200,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>409</v>
       </c>
@@ -7194,7 +7214,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>412</v>
       </c>
@@ -7208,7 +7228,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>415</v>
       </c>
@@ -7222,7 +7242,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>418</v>
       </c>
@@ -7236,7 +7256,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>421</v>
       </c>
@@ -7250,7 +7270,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>424</v>
       </c>
@@ -7264,7 +7284,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>427</v>
       </c>
@@ -7278,7 +7298,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>430</v>
       </c>
@@ -7292,7 +7312,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>433</v>
       </c>
@@ -7306,7 +7326,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>436</v>
       </c>
@@ -7320,7 +7340,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>439</v>
       </c>
@@ -7334,7 +7354,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>442</v>
       </c>
@@ -7348,7 +7368,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>445</v>
       </c>
@@ -7362,7 +7382,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>448</v>
       </c>
@@ -7376,7 +7396,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>451</v>
       </c>
@@ -7390,7 +7410,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>454</v>
       </c>
@@ -7416,7 +7436,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>459</v>
       </c>
@@ -7442,7 +7462,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>464</v>
       </c>
@@ -7468,7 +7488,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>584</v>
       </c>
@@ -7485,7 +7505,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>632</v>
       </c>
@@ -7502,7 +7522,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>635</v>
       </c>
@@ -7519,7 +7539,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>638</v>
       </c>
@@ -7536,7 +7556,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>611</v>
       </c>
@@ -7550,7 +7570,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>469</v>
       </c>
@@ -7576,7 +7596,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>474</v>
       </c>
@@ -7602,7 +7622,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>590</v>
       </c>
@@ -7616,7 +7636,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>641</v>
       </c>
@@ -7633,7 +7653,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>479</v>
       </c>
@@ -7659,7 +7679,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>593</v>
       </c>
@@ -7673,7 +7693,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>644</v>
       </c>
@@ -7690,7 +7710,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>587</v>
       </c>
@@ -7704,7 +7724,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>484</v>
       </c>
@@ -7730,7 +7750,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>647</v>
       </c>
@@ -7747,7 +7767,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>650</v>
       </c>
@@ -7764,7 +7784,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>653</v>
       </c>
@@ -7781,7 +7801,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>489</v>
       </c>
@@ -7807,7 +7827,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>599</v>
       </c>
@@ -7821,7 +7841,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>494</v>
       </c>
@@ -7847,7 +7867,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>499</v>
       </c>
@@ -7873,7 +7893,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>503</v>
       </c>
@@ -7899,7 +7919,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>507</v>
       </c>
@@ -7925,7 +7945,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>512</v>
       </c>
@@ -7951,7 +7971,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>517</v>
       </c>
@@ -7977,7 +7997,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>656</v>
       </c>
@@ -7994,7 +8014,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>602</v>
       </c>
@@ -8011,7 +8031,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>521</v>
       </c>
@@ -8037,7 +8057,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>659</v>
       </c>
@@ -8054,7 +8074,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>526</v>
       </c>
@@ -8071,7 +8091,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>529</v>
       </c>
@@ -8097,7 +8117,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>534</v>
       </c>
@@ -8123,7 +8143,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>538</v>
       </c>
@@ -8149,7 +8169,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>542</v>
       </c>
@@ -8166,7 +8186,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>545</v>
       </c>
@@ -8192,7 +8212,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>550</v>
       </c>
@@ -8218,7 +8238,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>662</v>
       </c>
@@ -8235,7 +8255,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>555</v>
       </c>
@@ -8249,7 +8269,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>665</v>
       </c>
@@ -8266,7 +8286,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>558</v>
       </c>
@@ -8283,7 +8303,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>561</v>
       </c>
@@ -8300,7 +8320,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>564</v>
       </c>
@@ -8317,7 +8337,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>668</v>
       </c>
@@ -8334,7 +8354,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="15" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>671</v>
       </c>
@@ -8351,7 +8371,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>567</v>
       </c>
@@ -8377,7 +8397,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>572</v>
       </c>
@@ -8403,7 +8423,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>576</v>
       </c>
@@ -8429,7 +8449,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>581</v>
       </c>
@@ -8446,7 +8466,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>614</v>
       </c>
@@ -8460,7 +8480,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="15" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>674</v>
       </c>
@@ -8477,7 +8497,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>686</v>
       </c>
@@ -8499,7 +8519,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>689</v>
       </c>
@@ -8521,7 +8541,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>692</v>
       </c>
@@ -8543,7 +8563,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>695</v>
       </c>
@@ -8565,7 +8585,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>698</v>
       </c>
@@ -8587,7 +8607,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>701</v>
       </c>
@@ -8609,7 +8629,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>707</v>
       </c>
@@ -8631,7 +8651,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>710</v>
       </c>
@@ -8653,7 +8673,7 @@
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>740</v>
       </c>
@@ -8675,7 +8695,7 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="15" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>713</v>
       </c>
@@ -8697,7 +8717,7 @@
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>716</v>
       </c>
@@ -8719,7 +8739,7 @@
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>764</v>
       </c>
@@ -8741,7 +8761,7 @@
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>719</v>
       </c>
@@ -8763,7 +8783,7 @@
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>722</v>
       </c>
@@ -8785,7 +8805,7 @@
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>725</v>
       </c>
@@ -8807,7 +8827,7 @@
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>704</v>
       </c>
@@ -8829,7 +8849,7 @@
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>761</v>
       </c>
@@ -8851,7 +8871,7 @@
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>728</v>
       </c>
@@ -8873,7 +8893,7 @@
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>731</v>
       </c>
@@ -8895,7 +8915,7 @@
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>758</v>
       </c>
@@ -8917,7 +8937,7 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>734</v>
       </c>
@@ -8939,7 +8959,7 @@
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>752</v>
       </c>
@@ -8961,7 +8981,7 @@
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>680</v>
       </c>
@@ -8983,7 +9003,7 @@
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>677</v>
       </c>
@@ -9005,7 +9025,7 @@
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>683</v>
       </c>
@@ -9027,7 +9047,7 @@
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>737</v>
       </c>
@@ -9049,7 +9069,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>743</v>
       </c>
@@ -9071,7 +9091,7 @@
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>746</v>
       </c>
@@ -9093,7 +9113,7 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>749</v>
       </c>
@@ -9115,7 +9135,7 @@
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>755</v>
       </c>
@@ -9137,7 +9157,7 @@
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>776</v>
       </c>
@@ -9159,7 +9179,7 @@
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>779</v>
       </c>
@@ -9181,7 +9201,7 @@
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>782</v>
       </c>
@@ -9203,7 +9223,7 @@
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>785</v>
       </c>
@@ -9225,7 +9245,7 @@
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="15" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>788</v>
       </c>
@@ -9247,7 +9267,7 @@
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>791</v>
       </c>
@@ -9269,7 +9289,7 @@
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="15" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>797</v>
       </c>
@@ -9291,7 +9311,7 @@
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="15" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>800</v>
       </c>
@@ -9313,7 +9333,7 @@
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="15" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>830</v>
       </c>
@@ -9335,7 +9355,7 @@
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="15" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>803</v>
       </c>
@@ -9357,7 +9377,7 @@
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="15" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>806</v>
       </c>
@@ -9379,7 +9399,7 @@
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="15" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>854</v>
       </c>
@@ -9401,7 +9421,7 @@
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="15" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>809</v>
       </c>
@@ -9423,7 +9443,7 @@
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="15" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>812</v>
       </c>
@@ -9445,7 +9465,7 @@
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="15" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>815</v>
       </c>
@@ -9467,7 +9487,7 @@
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="15" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>794</v>
       </c>
@@ -9489,7 +9509,7 @@
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="15" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>851</v>
       </c>
@@ -9511,7 +9531,7 @@
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="15" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>818</v>
       </c>
@@ -9533,7 +9553,7 @@
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="15" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>821</v>
       </c>
@@ -9555,7 +9575,7 @@
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="15" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>848</v>
       </c>
@@ -9577,7 +9597,7 @@
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="15" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>824</v>
       </c>
@@ -9599,7 +9619,7 @@
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="15" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>842</v>
       </c>
@@ -9621,7 +9641,7 @@
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="15" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>770</v>
       </c>
@@ -9643,7 +9663,7 @@
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="15" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>767</v>
       </c>
@@ -9665,7 +9685,7 @@
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="15" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>773</v>
       </c>
@@ -9687,7 +9707,7 @@
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="15" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>827</v>
       </c>
@@ -9709,7 +9729,7 @@
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="15" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>833</v>
       </c>
@@ -9731,7 +9751,7 @@
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="15" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>836</v>
       </c>
@@ -9753,7 +9773,7 @@
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
     </row>
-    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="15" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>839</v>
       </c>
@@ -9775,7 +9795,7 @@
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="15" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>845</v>
       </c>
@@ -9797,7 +9817,7 @@
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="15" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>866</v>
       </c>
@@ -9819,7 +9839,7 @@
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="15" customHeight="1">
       <c r="A148" s="3" t="s">
         <v>869</v>
       </c>
@@ -9841,7 +9861,7 @@
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="15" customHeight="1">
       <c r="A149" s="3" t="s">
         <v>872</v>
       </c>
@@ -9863,7 +9883,7 @@
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="15" customHeight="1">
       <c r="A150" s="3" t="s">
         <v>875</v>
       </c>
@@ -9885,7 +9905,7 @@
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="15" customHeight="1">
       <c r="A151" s="3" t="s">
         <v>878</v>
       </c>
@@ -9907,7 +9927,7 @@
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="15" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>881</v>
       </c>
@@ -9929,7 +9949,7 @@
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="15" customHeight="1">
       <c r="A153" s="3" t="s">
         <v>887</v>
       </c>
@@ -9951,7 +9971,7 @@
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="15" customHeight="1">
       <c r="A154" s="3" t="s">
         <v>890</v>
       </c>
@@ -9973,7 +9993,7 @@
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="15" customHeight="1">
       <c r="A155" s="3" t="s">
         <v>920</v>
       </c>
@@ -9995,7 +10015,7 @@
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="15" customHeight="1">
       <c r="A156" s="3" t="s">
         <v>893</v>
       </c>
@@ -10017,7 +10037,7 @@
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="15" customHeight="1">
       <c r="A157" s="3" t="s">
         <v>896</v>
       </c>
@@ -10039,7 +10059,7 @@
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="15" customHeight="1">
       <c r="A158" s="3" t="s">
         <v>944</v>
       </c>
@@ -10061,7 +10081,7 @@
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="15" customHeight="1">
       <c r="A159" s="3" t="s">
         <v>899</v>
       </c>
@@ -10083,7 +10103,7 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="15" customHeight="1">
       <c r="A160" s="3" t="s">
         <v>902</v>
       </c>
@@ -10105,7 +10125,7 @@
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="15" customHeight="1">
       <c r="A161" s="3" t="s">
         <v>905</v>
       </c>
@@ -10127,7 +10147,7 @@
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="15" customHeight="1">
       <c r="A162" s="3" t="s">
         <v>884</v>
       </c>
@@ -10149,7 +10169,7 @@
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="15" customHeight="1">
       <c r="A163" s="3" t="s">
         <v>941</v>
       </c>
@@ -10171,7 +10191,7 @@
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="15" customHeight="1">
       <c r="A164" s="3" t="s">
         <v>908</v>
       </c>
@@ -10193,7 +10213,7 @@
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="15" customHeight="1">
       <c r="A165" s="3" t="s">
         <v>911</v>
       </c>
@@ -10215,7 +10235,7 @@
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="15" customHeight="1">
       <c r="A166" s="3" t="s">
         <v>938</v>
       </c>
@@ -10237,7 +10257,7 @@
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="15" customHeight="1">
       <c r="A167" s="3" t="s">
         <v>914</v>
       </c>
@@ -10259,7 +10279,7 @@
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="15" customHeight="1">
       <c r="A168" s="3" t="s">
         <v>932</v>
       </c>
@@ -10281,7 +10301,7 @@
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="15" customHeight="1">
       <c r="A169" s="3" t="s">
         <v>860</v>
       </c>
@@ -10303,7 +10323,7 @@
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="15" customHeight="1">
       <c r="A170" s="3" t="s">
         <v>857</v>
       </c>
@@ -10325,7 +10345,7 @@
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="15" customHeight="1">
       <c r="A171" s="3" t="s">
         <v>863</v>
       </c>
@@ -10347,7 +10367,7 @@
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="15" customHeight="1">
       <c r="A172" s="3" t="s">
         <v>917</v>
       </c>
@@ -10369,7 +10389,7 @@
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="15" customHeight="1">
       <c r="A173" s="3" t="s">
         <v>923</v>
       </c>
@@ -10391,7 +10411,7 @@
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="15" customHeight="1">
       <c r="A174" s="3" t="s">
         <v>926</v>
       </c>
@@ -10413,7 +10433,7 @@
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="15" customHeight="1">
       <c r="A175" s="3" t="s">
         <v>929</v>
       </c>
@@ -10435,7 +10455,7 @@
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="15" customHeight="1">
       <c r="A176" s="3" t="s">
         <v>935</v>
       </c>
@@ -10465,6 +10485,11 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10479,18 +10504,18 @@
       <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="22.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="str">
         <f>Submodels!$A$1</f>
         <v>ID</v>
@@ -10511,7 +10536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>949</v>
       </c>
@@ -10525,7 +10550,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>952</v>
       </c>
@@ -10539,7 +10564,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>954</v>
       </c>
@@ -10559,7 +10584,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>958</v>
       </c>
@@ -10579,7 +10604,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>961</v>
       </c>
@@ -10599,6 +10624,11 @@
   </sheetData>
   <autoFilter ref="A1:F6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10613,16 +10643,16 @@
       <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10639,7 +10669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>965</v>
       </c>
@@ -10653,7 +10683,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>969</v>
       </c>
@@ -10667,7 +10697,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>972</v>
       </c>
@@ -10684,7 +10714,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>976</v>
       </c>
@@ -10698,7 +10728,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>979</v>
       </c>
@@ -10712,7 +10742,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>982</v>
       </c>
@@ -10726,7 +10756,7 @@
         <v>815332823</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>985</v>
       </c>
@@ -10740,7 +10770,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>988</v>
       </c>
@@ -10754,7 +10784,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>991</v>
       </c>
@@ -10768,7 +10798,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>994</v>
       </c>
@@ -10782,7 +10812,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>997</v>
       </c>
@@ -10796,7 +10826,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>1000</v>
       </c>
@@ -10810,7 +10840,7 @@
         <v>33184</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>1003</v>
       </c>
@@ -10824,7 +10854,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>1004</v>
       </c>
@@ -10838,7 +10868,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>1005</v>
       </c>
@@ -10852,7 +10882,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>1006</v>
       </c>
@@ -10866,7 +10896,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>1007</v>
       </c>
@@ -10880,7 +10910,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>1008</v>
       </c>
@@ -10894,7 +10924,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>1009</v>
       </c>
@@ -10911,5 +10941,10 @@
   </sheetData>
   <autoFilter ref="A1:E20"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>